--- a/data-manipulation/northeast-samples.xlsx
+++ b/data-manipulation/northeast-samples.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="140">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -98,295 +98,349 @@
     <t>10</t>
   </si>
   <si>
+    <t>2744</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>1531</t>
+  </si>
+  <si>
+    <t>&lt;Null&gt;</t>
+  </si>
+  <si>
+    <t>2370</t>
+  </si>
+  <si>
+    <t>2265</t>
+  </si>
+  <si>
+    <t>2400</t>
+  </si>
+  <si>
+    <t>2213</t>
+  </si>
+  <si>
+    <t>Debris Burn</t>
+  </si>
+  <si>
+    <t>Miscellaneou</t>
+  </si>
+  <si>
+    <t>Undetermined</t>
+  </si>
+  <si>
+    <t>Arson</t>
+  </si>
+  <si>
+    <t>8.07</t>
+  </si>
+  <si>
+    <t>25.6</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>NORTHEAST</t>
+  </si>
+  <si>
+    <t>1460</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>1720</t>
+  </si>
+  <si>
+    <t>2250</t>
+  </si>
+  <si>
+    <t>2600</t>
+  </si>
+  <si>
+    <t>3900</t>
+  </si>
+  <si>
+    <t>2120</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>5200</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>2765</t>
+  </si>
+  <si>
+    <t>3352</t>
+  </si>
+  <si>
+    <t>3271</t>
+  </si>
+  <si>
+    <t>2274</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>1578</t>
+  </si>
+  <si>
+    <t>3060</t>
+  </si>
+  <si>
+    <t>Smoker</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>1850</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1325</t>
+  </si>
+  <si>
+    <t>3061</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>1880</t>
+  </si>
+  <si>
+    <t>2220</t>
+  </si>
+  <si>
+    <t>1378</t>
+  </si>
+  <si>
+    <t>Recreation</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>2.2000000000000002</t>
+  </si>
+  <si>
+    <t>2215</t>
+  </si>
+  <si>
+    <t>2734</t>
+  </si>
+  <si>
+    <t>2100</t>
+  </si>
+  <si>
+    <t>2672</t>
+  </si>
+  <si>
+    <t>1403</t>
+  </si>
+  <si>
+    <t>1640</t>
+  </si>
+  <si>
+    <t>2177</t>
+  </si>
+  <si>
+    <t>1521</t>
+  </si>
+  <si>
+    <t>Under Invest</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>23.5</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>2560</t>
+  </si>
+  <si>
+    <t>1932</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>2340</t>
+  </si>
+  <si>
+    <t>2170</t>
+  </si>
+  <si>
+    <t>1862</t>
+  </si>
+  <si>
+    <t>2346</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>45.6</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>1940</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>2915</t>
+  </si>
+  <si>
+    <t>2085</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>2125</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>1560</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>2431</t>
+  </si>
+  <si>
+    <t>2276</t>
+  </si>
+  <si>
     <t>1920</t>
   </si>
   <si>
-    <t>&lt;Null&gt;</t>
-  </si>
-  <si>
-    <t>2300</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>3850</t>
+    <t>42</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>2420</t>
+  </si>
+  <si>
+    <t>2255</t>
+  </si>
+  <si>
+    <t>2450</t>
+  </si>
+  <si>
+    <t>3350</t>
+  </si>
+  <si>
+    <t>4054</t>
   </si>
   <si>
     <t>1830</t>
   </si>
   <si>
-    <t>2400</t>
-  </si>
-  <si>
-    <t>1640</t>
-  </si>
-  <si>
-    <t>Miscellaneou</t>
-  </si>
-  <si>
-    <t>Debris Burn</t>
-  </si>
-  <si>
-    <t>Lightning</t>
-  </si>
-  <si>
-    <t>Undetermined</t>
-  </si>
-  <si>
-    <t>Smoker</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Point</t>
-  </si>
-  <si>
-    <t>NORTHEAST</t>
-  </si>
-  <si>
-    <t>1880</t>
-  </si>
-  <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>2450</t>
-  </si>
-  <si>
-    <t>2200</t>
-  </si>
-  <si>
-    <t>1574</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2100</t>
-  </si>
-  <si>
-    <t>2710</t>
-  </si>
-  <si>
-    <t>Logging</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>13.7</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>2148</t>
-  </si>
-  <si>
-    <t>2700</t>
-  </si>
-  <si>
-    <t>1531</t>
-  </si>
-  <si>
-    <t>2907</t>
-  </si>
-  <si>
-    <t>2080</t>
-  </si>
-  <si>
-    <t>Recreation</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>1322</t>
-  </si>
-  <si>
-    <t>3275</t>
-  </si>
-  <si>
-    <t>2900</t>
-  </si>
-  <si>
-    <t>2140</t>
-  </si>
-  <si>
-    <t>1957</t>
-  </si>
-  <si>
-    <t>1468</t>
-  </si>
-  <si>
-    <t>2374</t>
-  </si>
-  <si>
-    <t>4214</t>
-  </si>
-  <si>
-    <t>2560</t>
-  </si>
-  <si>
-    <t>Arson</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>3.17</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>2313</t>
-  </si>
-  <si>
-    <t>2575</t>
-  </si>
-  <si>
-    <t>2672</t>
-  </si>
-  <si>
-    <t>1890</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2077</t>
-  </si>
-  <si>
-    <t>3637</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>1.89</t>
-  </si>
-  <si>
-    <t>2800</t>
-  </si>
-  <si>
-    <t>1132</t>
-  </si>
-  <si>
-    <t>1463</t>
-  </si>
-  <si>
-    <t>1966</t>
-  </si>
-  <si>
-    <t>2240</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>980</t>
-  </si>
-  <si>
-    <t>2250</t>
-  </si>
-  <si>
-    <t>1538</t>
+    <t>1060</t>
+  </si>
+  <si>
+    <t>1485</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>6561</t>
+  </si>
+  <si>
+    <t>1795</t>
   </si>
   <si>
     <t>2480</t>
   </si>
   <si>
-    <t>2.2000000000000002</t>
-  </si>
-  <si>
-    <t>1315</t>
-  </si>
-  <si>
-    <t>2361</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>3060</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>3500</t>
-  </si>
-  <si>
-    <t>1450</t>
-  </si>
-  <si>
-    <t>2475</t>
-  </si>
-  <si>
-    <t>2261</t>
-  </si>
-  <si>
-    <t>1554</t>
-  </si>
-  <si>
-    <t>Under Invest</t>
-  </si>
-  <si>
-    <t>32.5</t>
-  </si>
-  <si>
-    <t>2860</t>
-  </si>
-  <si>
-    <t>3769</t>
-  </si>
-  <si>
-    <t>2213</t>
-  </si>
-  <si>
-    <t>3960</t>
-  </si>
-  <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>855</t>
-  </si>
-  <si>
-    <t>44.5</t>
-  </si>
-  <si>
-    <t>1.75</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>1.1000000000000001</t>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>3600</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>6.5</t>
   </si>
 </sst>
 </file>
@@ -490,16 +544,16 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>1533.0</v>
+        <v>4083.0</v>
       </c>
       <c r="C2" t="n">
-        <v>27.0</v>
+        <v>38.0</v>
       </c>
       <c r="D2" t="n">
-        <v>43.0</v>
+        <v>28.0</v>
       </c>
       <c r="E2" t="n">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -508,31 +562,31 @@
         <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.82909</v>
+        <v>48.8087</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.4139</v>
+        <v>-119.30624</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>559818.5000000001</v>
+        <v>398969.5999999998</v>
       </c>
       <c r="P2" t="n">
-        <v>91199.90000000008</v>
+        <v>198957.0000000002</v>
       </c>
     </row>
     <row r="3">
@@ -540,16 +594,16 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>9944.0</v>
+        <v>9479.0</v>
       </c>
       <c r="C3" t="n">
-        <v>28.0</v>
+        <v>37.0</v>
       </c>
       <c r="D3" t="n">
-        <v>40.0</v>
+        <v>29.0</v>
       </c>
       <c r="E3" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -558,31 +612,31 @@
         <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>1.0</v>
+        <v>8.07</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>47.925999</v>
+        <v>48.70328</v>
       </c>
       <c r="L3" t="n">
-        <v>-117.78911</v>
+        <v>-119.212</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O3" t="n">
-        <v>527925.6500000005</v>
+        <v>406979.9999999997</v>
       </c>
       <c r="P3" t="n">
-        <v>101859.88999999971</v>
+        <v>187360.79999999993</v>
       </c>
     </row>
     <row r="4">
@@ -590,49 +644,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>15010.0</v>
+        <v>14542.0</v>
       </c>
       <c r="C4" t="n">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
       <c r="D4" t="n">
-        <v>32.0</v>
+        <v>26.0</v>
       </c>
       <c r="E4" t="n">
-        <v>11.0</v>
+        <v>25.0</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" t="n">
         <v>2.0</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.97551</v>
+        <v>48.58491</v>
       </c>
       <c r="L4" t="n">
-        <v>-118.74747</v>
+        <v>-119.50309</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O4" t="n">
-        <v>446465.0499999994</v>
+        <v>382237.35</v>
       </c>
       <c r="P4" t="n">
-        <v>217306.09999999998</v>
+        <v>174340.10000000006</v>
       </c>
     </row>
     <row r="5">
@@ -640,49 +694,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>2978.0</v>
+        <v>2621.0</v>
       </c>
       <c r="C5" t="n">
-        <v>37.0</v>
+        <v>26.0</v>
       </c>
       <c r="D5" t="n">
-        <v>39.0</v>
+        <v>44.0</v>
       </c>
       <c r="E5" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.6681</v>
+        <v>47.72033</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.93629</v>
+        <v>-117.22658</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O5" t="n">
-        <v>515415.35000000003</v>
+        <v>575740.7000000002</v>
       </c>
       <c r="P5" t="n">
-        <v>183491.0000000003</v>
+        <v>79236.29999999967</v>
       </c>
     </row>
     <row r="6">
@@ -690,49 +744,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>20222.0</v>
+        <v>11502.0</v>
       </c>
       <c r="C6" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="D6" t="n">
         <v>43.0</v>
       </c>
       <c r="E6" t="n">
-        <v>34.0</v>
+        <v>20.0</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0</v>
+        <v>1.25</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>47.5273</v>
+        <v>47.4725</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.36558</v>
+        <v>-117.40327</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O6" t="n">
-        <v>563925.7000000005</v>
+        <v>560722.0499999995</v>
       </c>
       <c r="P6" t="n">
-        <v>58002.99999999964</v>
+        <v>51974.99999999962</v>
       </c>
     </row>
     <row r="7">
@@ -740,25 +794,25 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>11649.0</v>
+        <v>17870.0</v>
       </c>
       <c r="C7" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="D7" t="n">
-        <v>38.0</v>
+        <v>25.0</v>
       </c>
       <c r="E7" t="n">
-        <v>34.0</v>
+        <v>10.0</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>39.0</v>
+        <v>25.6</v>
       </c>
       <c r="I7" t="s">
         <v>38</v>
@@ -767,22 +821,22 @@
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.04959</v>
+        <v>48.28608</v>
       </c>
       <c r="L7" t="n">
-        <v>-118.01414</v>
+        <v>-119.67405</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O7" t="n">
-        <v>508798.1000000002</v>
+        <v>367705.7500000005</v>
       </c>
       <c r="P7" t="n">
-        <v>115454.90000000023</v>
+        <v>141468.7999999998</v>
       </c>
     </row>
     <row r="8">
@@ -790,49 +844,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>11430.0</v>
+        <v>14357.0</v>
       </c>
       <c r="C8" t="n">
-        <v>28.0</v>
+        <v>33.0</v>
       </c>
       <c r="D8" t="n">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
       <c r="E8" t="n">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>47.88378</v>
+        <v>48.32466</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.43023</v>
+        <v>-117.72067</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O8" t="n">
-        <v>558430.4500000004</v>
+        <v>533743.0500000002</v>
       </c>
       <c r="P8" t="n">
-        <v>97215.80000000018</v>
+        <v>145712.60000000015</v>
       </c>
     </row>
     <row r="9">
@@ -840,49 +894,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>15164.0</v>
+        <v>1553.0</v>
       </c>
       <c r="C9" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="D9" t="n">
-        <v>34.0</v>
+        <v>44.0</v>
       </c>
       <c r="E9" t="n">
-        <v>32.0</v>
+        <v>18.0</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.14212</v>
+        <v>48.0986</v>
       </c>
       <c r="L9" t="n">
-        <v>-118.55221</v>
+        <v>-117.30327</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O9" t="n">
-        <v>463062.1499999998</v>
+        <v>569222.0500000002</v>
       </c>
       <c r="P9" t="n">
-        <v>125633.19999999984</v>
+        <v>120845.99999999974</v>
       </c>
     </row>
     <row r="10">
@@ -890,49 +944,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>4141.0</v>
+        <v>5049.0</v>
       </c>
       <c r="C10" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="D10" t="n">
         <v>42.0</v>
       </c>
       <c r="E10" t="n">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H10" t="n">
-        <v>2.0</v>
+        <v>1.3</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.49202</v>
+        <v>47.75299</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.46842</v>
+        <v>-117.55818</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O10" t="n">
-        <v>555184.3000000004</v>
+        <v>547554.7000000007</v>
       </c>
       <c r="P10" t="n">
-        <v>54122.199999999626</v>
+        <v>82828.89999999966</v>
       </c>
     </row>
     <row r="11">
@@ -940,49 +994,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>4797.0</v>
+        <v>16462.0</v>
       </c>
       <c r="C11" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="D11" t="n">
         <v>33.0</v>
       </c>
-      <c r="D11" t="n">
-        <v>39.0</v>
-      </c>
       <c r="E11" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>1.5</v>
+        <v>2.0</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.35401</v>
+        <v>48.44546</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.83286</v>
+        <v>-118.70152</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O11" t="n">
-        <v>524206.9000000003</v>
+        <v>450370.7999999998</v>
       </c>
       <c r="P11" t="n">
-        <v>148941.10000000027</v>
+        <v>159000.5999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1051,49 +1105,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>14157.0</v>
+        <v>15704.0</v>
       </c>
       <c r="C2" t="n">
-        <v>38.0</v>
+        <v>31.0</v>
       </c>
       <c r="D2" t="n">
-        <v>32.0</v>
+        <v>21.0</v>
       </c>
       <c r="E2" t="n">
-        <v>36.0</v>
+        <v>48.0</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>44.5</v>
+        <v>6.9</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.74997</v>
+        <v>48.186266</v>
       </c>
       <c r="L2" t="n">
-        <v>-118.71916</v>
+        <v>-120.172799</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>448871.3999999998</v>
+        <v>325312.0850000002</v>
       </c>
       <c r="P2" t="n">
-        <v>192496.69999999972</v>
+        <v>130489.26000000037</v>
       </c>
     </row>
     <row r="3">
@@ -1101,49 +1155,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>20094.0</v>
+        <v>6365.0</v>
       </c>
       <c r="C3" t="n">
-        <v>38.0</v>
+        <v>34.0</v>
       </c>
       <c r="D3" t="n">
-        <v>40.0</v>
+        <v>26.0</v>
       </c>
       <c r="E3" t="n">
-        <v>27.0</v>
+        <v>9.0</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H3" t="n">
-        <v>1.75</v>
+        <v>1.0</v>
       </c>
       <c r="I3" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.77674</v>
+        <v>48.45517</v>
       </c>
       <c r="L3" t="n">
-        <v>-117.74761</v>
+        <v>-119.57341</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O3" t="n">
-        <v>531453.1500000005</v>
+        <v>376260.1500000004</v>
       </c>
       <c r="P3" t="n">
-        <v>195441.39999999964</v>
+        <v>160068.70000000027</v>
       </c>
     </row>
     <row r="4">
@@ -1151,49 +1205,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>1755.0</v>
+        <v>9599.0</v>
       </c>
       <c r="C4" t="n">
-        <v>28.0</v>
+        <v>32.0</v>
       </c>
       <c r="D4" t="n">
-        <v>43.0</v>
+        <v>38.0</v>
       </c>
       <c r="E4" t="n">
-        <v>24.0</v>
+        <v>29.0</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.91252</v>
+        <v>48.25073</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.31815</v>
+        <v>-118.05916</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O4" t="n">
-        <v>567957.2499999998</v>
+        <v>504971.3999999995</v>
       </c>
       <c r="P4" t="n">
-        <v>100377.20000000007</v>
+        <v>137580.2999999997</v>
       </c>
     </row>
     <row r="5">
@@ -1201,49 +1255,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>5049.0</v>
+        <v>4396.0</v>
       </c>
       <c r="C5" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="D5" t="n">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
       <c r="E5" t="n">
-        <v>18.0</v>
+        <v>30.0</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="H5" t="n">
-        <v>1.3</v>
+        <v>1.0</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.75299</v>
+        <v>47.81572</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.55818</v>
+        <v>-117.81783</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O5" t="n">
-        <v>547554.7000000007</v>
+        <v>525484.45</v>
       </c>
       <c r="P5" t="n">
-        <v>82828.89999999966</v>
+        <v>89729.19999999988</v>
       </c>
     </row>
     <row r="6">
@@ -1251,49 +1305,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>19641.0</v>
+        <v>626.0</v>
       </c>
       <c r="C6" t="n">
         <v>35.0</v>
       </c>
       <c r="D6" t="n">
-        <v>31.0</v>
+        <v>21.0</v>
       </c>
       <c r="E6" t="n">
-        <v>3.0</v>
+        <v>25.0</v>
       </c>
       <c r="F6" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0</v>
+        <v>46.6</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.57029</v>
+        <v>48.50291</v>
       </c>
       <c r="L6" t="n">
-        <v>-118.91615</v>
+        <v>-120.14618</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O6" t="n">
-        <v>432127.2499999998</v>
+        <v>327574.6999999999</v>
       </c>
       <c r="P6" t="n">
-        <v>172731.9</v>
+        <v>165320.1</v>
       </c>
     </row>
     <row r="7">
@@ -1301,49 +1355,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>17642.0</v>
+        <v>1031.0</v>
       </c>
       <c r="C7" t="n">
-        <v>40.0</v>
+        <v>24.0</v>
       </c>
       <c r="D7" t="n">
-        <v>32.0</v>
+        <v>44.0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.0</v>
+        <v>26.0</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.99725</v>
+        <v>47.54906</v>
       </c>
       <c r="L7" t="n">
-        <v>-118.78026</v>
+        <v>-117.20889</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O7" t="n">
-        <v>443677.90000000014</v>
+        <v>577244.3500000003</v>
       </c>
       <c r="P7" t="n">
-        <v>219697.50000000012</v>
+        <v>60396.59999999969</v>
       </c>
     </row>
     <row r="8">
@@ -1351,49 +1405,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>9716.0</v>
+        <v>4056.0</v>
       </c>
       <c r="C8" t="n">
-        <v>28.0</v>
+        <v>39.0</v>
       </c>
       <c r="D8" t="n">
-        <v>40.0</v>
+        <v>32.0</v>
       </c>
       <c r="E8" t="n">
-        <v>36.0</v>
+        <v>9.0</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H8" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="I8" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>47.88018</v>
+        <v>48.89894</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.70556</v>
+        <v>-118.77414</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O8" t="n">
-        <v>535027.3999999996</v>
+        <v>444198.09999999974</v>
       </c>
       <c r="P8" t="n">
-        <v>96819.80000000031</v>
+        <v>208883.40000000034</v>
       </c>
     </row>
     <row r="9">
@@ -1401,49 +1455,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>1664.0</v>
+        <v>16240.0</v>
       </c>
       <c r="C9" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="D9" t="n">
-        <v>26.0</v>
+        <v>39.0</v>
       </c>
       <c r="E9" t="n">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
       </c>
       <c r="H9" t="n">
-        <v>4.14</v>
+        <v>3.37</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.50197</v>
+        <v>48.46251</v>
       </c>
       <c r="L9" t="n">
-        <v>-119.51337</v>
+        <v>-117.88696</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O9" t="n">
-        <v>381363.55000000045</v>
+        <v>519608.39999999985</v>
       </c>
       <c r="P9" t="n">
-        <v>165216.7</v>
+        <v>160876.10000000018</v>
       </c>
     </row>
     <row r="10">
@@ -1451,49 +1505,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>11943.0</v>
+        <v>9602.0</v>
       </c>
       <c r="C10" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D10" t="n">
         <v>24.0</v>
       </c>
-      <c r="D10" t="n">
-        <v>41.0</v>
-      </c>
       <c r="E10" t="n">
-        <v>32.0</v>
+        <v>5.0</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H10" t="n">
-        <v>1.1</v>
+        <v>13.1</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.53101</v>
+        <v>48.21588</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.66383</v>
+        <v>-119.8501</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O10" t="n">
-        <v>538574.4499999996</v>
+        <v>352741.5000000002</v>
       </c>
       <c r="P10" t="n">
-        <v>58411.10000000022</v>
+        <v>133746.79999999984</v>
       </c>
     </row>
     <row r="11">
@@ -1501,49 +1555,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>12889.0</v>
+        <v>15049.0</v>
       </c>
       <c r="C11" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E11" t="n">
         <v>26.0</v>
       </c>
-      <c r="D11" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5.0</v>
-      </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H11" t="n">
-        <v>1.26</v>
+        <v>4.85</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>47.77466</v>
+        <v>48.82441</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.39771</v>
+        <v>-117.81185</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O11" t="n">
-        <v>561194.6499999997</v>
+        <v>525992.7499999994</v>
       </c>
       <c r="P11" t="n">
-        <v>85212.5999999997</v>
+        <v>200685.10000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1612,49 +1666,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>9713.0</v>
+        <v>16785.0</v>
       </c>
       <c r="C2" t="n">
-        <v>27.0</v>
+        <v>33.0</v>
       </c>
       <c r="D2" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="E2" t="n">
-        <v>33.0</v>
+        <v>16.0</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="n">
-        <v>97.0</v>
+        <v>1.0</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.79043</v>
+        <v>48.35317</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.93076</v>
+        <v>-118.15295</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>515885.39999999944</v>
+        <v>496999.24999999965</v>
       </c>
       <c r="P2" t="n">
-        <v>86947.30000000008</v>
+        <v>148848.69999999987</v>
       </c>
     </row>
     <row r="3">
@@ -1662,49 +1716,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>220.0</v>
+        <v>18290.0</v>
       </c>
       <c r="C3" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="D3" t="n">
         <v>29.0</v>
       </c>
-      <c r="D3" t="n">
-        <v>41.0</v>
-      </c>
       <c r="E3" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>13.7</v>
+        <v>2.1</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.02827</v>
+        <v>48.64996</v>
       </c>
       <c r="L3" t="n">
-        <v>-117.67965</v>
+        <v>-119.21483</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O3" t="n">
-        <v>537229.7500000005</v>
+        <v>406739.4499999995</v>
       </c>
       <c r="P3" t="n">
-        <v>113109.69999999991</v>
+        <v>181495.6</v>
       </c>
     </row>
     <row r="4">
@@ -1712,49 +1766,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>410.0</v>
+        <v>7640.0</v>
       </c>
       <c r="C4" t="n">
-        <v>28.0</v>
+        <v>33.0</v>
       </c>
       <c r="D4" t="n">
-        <v>36.0</v>
+        <v>20.0</v>
       </c>
       <c r="E4" t="n">
-        <v>23.0</v>
+        <v>42.0</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="J4" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.90615</v>
+        <v>48.36141</v>
       </c>
       <c r="L4" t="n">
-        <v>-118.24664</v>
+        <v>-120.28798</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O4" t="n">
-        <v>489035.60000000003</v>
+        <v>315521.6999999996</v>
       </c>
       <c r="P4" t="n">
-        <v>99676.49999999964</v>
+        <v>149755.09999999992</v>
       </c>
     </row>
     <row r="5">
@@ -1762,49 +1816,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>8698.0</v>
+        <v>6381.0</v>
       </c>
       <c r="C5" t="n">
         <v>30.0</v>
       </c>
       <c r="D5" t="n">
-        <v>41.0</v>
+        <v>23.0</v>
       </c>
       <c r="E5" t="n">
-        <v>27.0</v>
+        <v>5.0</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
       </c>
       <c r="H5" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.0683</v>
+        <v>48.12256</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.62218</v>
+        <v>-119.98483</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O5" t="n">
-        <v>542114.7</v>
+        <v>341289.4499999998</v>
       </c>
       <c r="P5" t="n">
-        <v>117513.00000000007</v>
+        <v>123481.6</v>
       </c>
     </row>
     <row r="6">
@@ -1812,49 +1866,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>14125.0</v>
+        <v>18825.0</v>
       </c>
       <c r="C6" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="D6" t="n">
-        <v>43.0</v>
+        <v>39.0</v>
       </c>
       <c r="E6" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.0</v>
       </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.7</v>
-      </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>47.69164</v>
+        <v>47.827</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.34395</v>
+        <v>-117.86674</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O6" t="n">
-        <v>565764.2499999994</v>
+        <v>521327.1000000006</v>
       </c>
       <c r="P6" t="n">
-        <v>76080.39999999995</v>
+        <v>90969.9999999998</v>
       </c>
     </row>
     <row r="7">
@@ -1862,49 +1916,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>3882.0</v>
+        <v>2709.0</v>
       </c>
       <c r="C7" t="n">
         <v>39.0</v>
       </c>
       <c r="D7" t="n">
-        <v>26.0</v>
+        <v>39.0</v>
       </c>
       <c r="E7" t="n">
-        <v>6.0</v>
+        <v>25.0</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" t="n">
-        <v>1.06</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.90651</v>
+        <v>48.85559</v>
       </c>
       <c r="L7" t="n">
-        <v>-119.61308</v>
+        <v>-117.82274</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O7" t="n">
-        <v>372888.2000000003</v>
+        <v>525067.1000000003</v>
       </c>
       <c r="P7" t="n">
-        <v>209716.0999999997</v>
+        <v>204114.89999999994</v>
       </c>
     </row>
     <row r="8">
@@ -1912,49 +1966,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>16323.0</v>
+        <v>4888.0</v>
       </c>
       <c r="C8" t="n">
-        <v>33.0</v>
+        <v>23.0</v>
       </c>
       <c r="D8" t="n">
-        <v>28.0</v>
+        <v>43.0</v>
       </c>
       <c r="E8" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
       </c>
       <c r="H8" t="n">
-        <v>1.3</v>
+        <v>10.4</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="J8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.36559</v>
+        <v>47.49441</v>
       </c>
       <c r="L8" t="n">
-        <v>-119.35729</v>
+        <v>-117.34962</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O8" t="n">
-        <v>394630.34999999945</v>
+        <v>565282.2999999998</v>
       </c>
       <c r="P8" t="n">
-        <v>150214.8999999997</v>
+        <v>54385.100000000224</v>
       </c>
     </row>
     <row r="9">
@@ -1962,49 +2016,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>5230.0</v>
+        <v>18643.0</v>
       </c>
       <c r="C9" t="n">
-        <v>29.0</v>
+        <v>35.0</v>
       </c>
       <c r="D9" t="n">
-        <v>40.0</v>
+        <v>28.0</v>
       </c>
       <c r="E9" t="n">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>1.0</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>47.9956</v>
+        <v>48.48691</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.73305</v>
+        <v>-119.36765</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O9" t="n">
-        <v>532690.7499999995</v>
+        <v>393749.75000000023</v>
       </c>
       <c r="P9" t="n">
-        <v>109516.00000000035</v>
+        <v>163560.10000000018</v>
       </c>
     </row>
     <row r="10">
@@ -2012,49 +2066,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>400.0</v>
+        <v>17224.0</v>
       </c>
       <c r="C10" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="D10" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="E10" t="n">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
       </c>
       <c r="H10" t="n">
-        <v>2.0</v>
+        <v>15.5</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.25798</v>
+        <v>48.19192</v>
       </c>
       <c r="L10" t="n">
-        <v>-118.04835</v>
+        <v>-117.83168</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O10" t="n">
-        <v>505890.25000000006</v>
+        <v>524307.1999999995</v>
       </c>
       <c r="P10" t="n">
-        <v>138377.80000000037</v>
+        <v>131111.20000000036</v>
       </c>
     </row>
     <row r="11">
@@ -2062,49 +2116,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>18570.0</v>
+        <v>4734.0</v>
       </c>
       <c r="C11" t="n">
-        <v>31.0</v>
+        <v>39.0</v>
       </c>
       <c r="D11" t="n">
-        <v>41.0</v>
+        <v>34.0</v>
       </c>
       <c r="E11" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" t="n">
-        <v>1.19</v>
+        <v>31.5</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.21017</v>
+        <v>48.87613</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.65289</v>
+        <v>-118.53085</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O11" t="n">
-        <v>539504.3500000001</v>
+        <v>464877.74999999994</v>
       </c>
       <c r="P11" t="n">
-        <v>133118.69999999978</v>
+        <v>206374.30000000037</v>
       </c>
     </row>
   </sheetData>
@@ -2173,49 +2227,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>1486.0</v>
+        <v>4115.0</v>
       </c>
       <c r="C2" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="D2" t="n">
         <v>25.0</v>
       </c>
-      <c r="D2" t="n">
-        <v>42.0</v>
-      </c>
       <c r="E2" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H2" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.67708</v>
+        <v>48.81137</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.44563</v>
+        <v>-119.7436</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>557121.4500000005</v>
+        <v>361793.99999999994</v>
       </c>
       <c r="P2" t="n">
-        <v>74478.79999999962</v>
+        <v>199250.69999999963</v>
       </c>
     </row>
     <row r="3">
@@ -2223,49 +2277,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>9820.0</v>
+        <v>6590.0</v>
       </c>
       <c r="C3" t="n">
-        <v>38.0</v>
+        <v>32.0</v>
       </c>
       <c r="D3" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="E3" t="n">
         <v>28.0</v>
       </c>
-      <c r="E3" t="n">
-        <v>7.0</v>
-      </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>1.4</v>
+        <v>4.0</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.80504</v>
+        <v>48.23949</v>
       </c>
       <c r="L3" t="n">
-        <v>-119.34418</v>
+        <v>-117.24901</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O3" t="n">
-        <v>395744.7000000005</v>
+        <v>573834.1500000001</v>
       </c>
       <c r="P3" t="n">
-        <v>198554.3999999998</v>
+        <v>136343.9000000004</v>
       </c>
     </row>
     <row r="4">
@@ -2273,49 +2327,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>11996.0</v>
+        <v>15735.0</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="D4" t="n">
-        <v>45.0</v>
+        <v>41.0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.0</v>
+        <v>27.0</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H4" t="n">
-        <v>1.8</v>
+        <v>16.0</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.26502</v>
+        <v>47.3676</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.10725</v>
+        <v>-117.62056</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O4" t="n">
-        <v>585883.7500000006</v>
+        <v>542252.4000000003</v>
       </c>
       <c r="P4" t="n">
-        <v>29152.19999999998</v>
+        <v>40436.000000000335</v>
       </c>
     </row>
     <row r="5">
@@ -2323,49 +2377,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>14542.0</v>
+        <v>1099.0</v>
       </c>
       <c r="C5" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="D5" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="E5" t="n">
-        <v>25.0</v>
+        <v>13.0</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
-        <v>2.0</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.58491</v>
+        <v>48.79075</v>
       </c>
       <c r="L5" t="n">
-        <v>-119.50309</v>
+        <v>-119.38288</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O5" t="n">
-        <v>382237.35</v>
+        <v>392455.2</v>
       </c>
       <c r="P5" t="n">
-        <v>174340.10000000006</v>
+        <v>196982.5000000003</v>
       </c>
     </row>
     <row r="6">
@@ -2373,49 +2427,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>16954.0</v>
+        <v>19538.0</v>
       </c>
       <c r="C6" t="n">
-        <v>24.0</v>
+        <v>38.0</v>
       </c>
       <c r="D6" t="n">
-        <v>42.0</v>
+        <v>28.0</v>
       </c>
       <c r="E6" t="n">
-        <v>31.0</v>
+        <v>11.0</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" t="n">
-        <v>1.5</v>
+        <v>15.2</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>47.53092</v>
+        <v>48.81232</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.55307</v>
+        <v>-119.26751</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O6" t="n">
-        <v>547989.0499999996</v>
+        <v>402261.64999999985</v>
       </c>
       <c r="P6" t="n">
-        <v>58401.2000000002</v>
+        <v>199355.19999999995</v>
       </c>
     </row>
     <row r="7">
@@ -2423,49 +2477,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>13093.0</v>
+        <v>10363.0</v>
       </c>
       <c r="C7" t="n">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
       <c r="D7" t="n">
-        <v>39.0</v>
+        <v>31.0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.0</v>
+        <v>21.0</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" t="n">
-        <v>5.0</v>
+        <v>17.8</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.37572</v>
+        <v>48.77503</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.85577</v>
+        <v>-118.92129</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O7" t="n">
-        <v>522259.5499999994</v>
+        <v>431690.3500000001</v>
       </c>
       <c r="P7" t="n">
-        <v>151329.20000000013</v>
+        <v>195253.3000000001</v>
       </c>
     </row>
     <row r="8">
@@ -2473,49 +2527,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>14964.0</v>
+        <v>19501.0</v>
       </c>
       <c r="C8" t="n">
-        <v>38.0</v>
+        <v>27.0</v>
       </c>
       <c r="D8" t="n">
-        <v>25.0</v>
+        <v>44.0</v>
       </c>
       <c r="E8" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.79747</v>
+        <v>47.84054</v>
       </c>
       <c r="L8" t="n">
-        <v>-119.6944</v>
+        <v>-117.23187</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O8" t="n">
-        <v>365975.9999999999</v>
+        <v>575291.0499999999</v>
       </c>
       <c r="P8" t="n">
-        <v>197721.69999999966</v>
+        <v>92459.39999999969</v>
       </c>
     </row>
     <row r="9">
@@ -2523,49 +2577,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>378.0</v>
+        <v>13807.0</v>
       </c>
       <c r="C9" t="n">
-        <v>32.0</v>
+        <v>25.0</v>
       </c>
       <c r="D9" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="E9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="H9" t="n">
-        <v>20.3</v>
+        <v>1.5</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.30486</v>
+        <v>47.69902</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.2654</v>
+        <v>-117.4994</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O9" t="n">
-        <v>572441.0</v>
+        <v>552551.0000000005</v>
       </c>
       <c r="P9" t="n">
-        <v>143534.59999999977</v>
+        <v>76892.1999999997</v>
       </c>
     </row>
     <row r="10">
@@ -2573,49 +2627,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>18303.0</v>
+        <v>9677.0</v>
       </c>
       <c r="C10" t="n">
-        <v>24.0</v>
+        <v>38.0</v>
       </c>
       <c r="D10" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="E10" t="n">
-        <v>36.0</v>
+        <v>6.0</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H10" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.53537</v>
+        <v>48.82235</v>
       </c>
       <c r="L10" t="n">
-        <v>-118.47191</v>
+        <v>-118.15925</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O10" t="n">
-        <v>469887.6500000005</v>
+        <v>496463.75</v>
       </c>
       <c r="P10" t="n">
-        <v>58890.70000000004</v>
+        <v>200458.50000000003</v>
       </c>
     </row>
     <row r="11">
@@ -2623,49 +2677,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>4438.0</v>
+        <v>6815.0</v>
       </c>
       <c r="C11" t="n">
-        <v>25.0</v>
+        <v>35.0</v>
       </c>
       <c r="D11" t="n">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
       <c r="E11" t="n">
-        <v>36.0</v>
+        <v>28.0</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>47.61923</v>
+        <v>48.50196</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.44598</v>
+        <v>-117.76563</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O11" t="n">
-        <v>557091.6999999995</v>
+        <v>529921.4499999998</v>
       </c>
       <c r="P11" t="n">
-        <v>68115.30000000019</v>
+        <v>165215.59999999966</v>
       </c>
     </row>
   </sheetData>
@@ -2734,49 +2788,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>7745.0</v>
+        <v>3423.0</v>
       </c>
       <c r="C2" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="D2" t="n">
-        <v>27.0</v>
+        <v>32.0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" t="n">
-        <v>3.0</v>
+        <v>6.6</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.91451</v>
+        <v>48.97191</v>
       </c>
       <c r="L2" t="n">
-        <v>-119.427</v>
+        <v>-118.76379</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>388704.9999999994</v>
+        <v>445077.85</v>
       </c>
       <c r="P2" t="n">
-        <v>210596.1</v>
+        <v>216910.10000000012</v>
       </c>
     </row>
     <row r="3">
@@ -2784,49 +2838,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>12930.0</v>
+        <v>10943.0</v>
       </c>
       <c r="C3" t="n">
-        <v>29.0</v>
+        <v>22.0</v>
       </c>
       <c r="D3" t="n">
-        <v>44.0</v>
+        <v>41.0</v>
       </c>
       <c r="E3" t="n">
-        <v>5.0</v>
+        <v>36.0</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>9.5</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.03382</v>
+        <v>47.34913</v>
       </c>
       <c r="L3" t="n">
-        <v>-117.28139</v>
+        <v>-117.56639</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O3" t="n">
-        <v>571081.8499999999</v>
+        <v>546856.8500000001</v>
       </c>
       <c r="P3" t="n">
-        <v>113720.19999999985</v>
+        <v>38404.300000000265</v>
       </c>
     </row>
     <row r="4">
@@ -2834,49 +2888,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>12453.0</v>
+        <v>12259.0</v>
       </c>
       <c r="C4" t="n">
-        <v>36.0</v>
+        <v>30.0</v>
       </c>
       <c r="D4" t="n">
-        <v>30.0</v>
+        <v>24.0</v>
       </c>
       <c r="E4" t="n">
-        <v>27.0</v>
+        <v>17.0</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.59558</v>
+        <v>48.0928</v>
       </c>
       <c r="L4" t="n">
-        <v>-119.05819</v>
+        <v>-119.84392</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O4" t="n">
-        <v>420053.8500000003</v>
+        <v>353266.8000000002</v>
       </c>
       <c r="P4" t="n">
-        <v>175513.7999999998</v>
+        <v>120207.99999999965</v>
       </c>
     </row>
     <row r="5">
@@ -2884,49 +2938,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>3823.0</v>
+        <v>4351.0</v>
       </c>
       <c r="C5" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="D5" t="n">
         <v>28.0</v>
       </c>
-      <c r="D5" t="n">
-        <v>44.0</v>
-      </c>
       <c r="E5" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H5" t="n">
-        <v>3.17</v>
+        <v>9.0</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.91898</v>
+        <v>48.71417</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.17789</v>
+        <v>-119.26753</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O5" t="n">
-        <v>579879.3499999996</v>
+        <v>402259.95000000054</v>
       </c>
       <c r="P5" t="n">
-        <v>101087.79999999974</v>
+        <v>188558.7000000003</v>
       </c>
     </row>
     <row r="6">
@@ -2934,49 +2988,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>18013.0</v>
+        <v>9801.0</v>
       </c>
       <c r="C6" t="n">
-        <v>32.0</v>
+        <v>26.0</v>
       </c>
       <c r="D6" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="E6" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" t="n">
-        <v>17.5</v>
+        <v>2.5</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.29922</v>
+        <v>47.74652</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.908</v>
+        <v>-118.05269</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O6" t="n">
-        <v>517819.9999999999</v>
+        <v>505521.35000000015</v>
       </c>
       <c r="P6" t="n">
-        <v>142914.1999999998</v>
+        <v>82117.19999999965</v>
       </c>
     </row>
     <row r="7">
@@ -2984,49 +3038,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>1855.0</v>
+        <v>66.0</v>
       </c>
       <c r="C7" t="n">
         <v>25.0</v>
       </c>
       <c r="D7" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="E7" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H7" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>47.67696</v>
+        <v>47.68806</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.1832</v>
+        <v>-117.4777</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O7" t="n">
-        <v>579428.0</v>
+        <v>554395.5000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>74465.60000000012</v>
+        <v>75686.6</v>
       </c>
     </row>
     <row r="8">
@@ -3034,49 +3088,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>20491.0</v>
+        <v>8812.0</v>
       </c>
       <c r="C8" t="n">
-        <v>38.0</v>
+        <v>25.0</v>
       </c>
       <c r="D8" t="n">
-        <v>27.0</v>
+        <v>42.0</v>
       </c>
       <c r="E8" t="n">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.79424</v>
+        <v>47.6774</v>
       </c>
       <c r="L8" t="n">
-        <v>-119.48676</v>
+        <v>-117.52063</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O8" t="n">
-        <v>383625.3999999997</v>
+        <v>550746.4500000003</v>
       </c>
       <c r="P8" t="n">
-        <v>197366.40000000023</v>
+        <v>74513.99999999985</v>
       </c>
     </row>
     <row r="9">
@@ -3084,49 +3138,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>19520.0</v>
+        <v>6635.0</v>
       </c>
       <c r="C9" t="n">
-        <v>25.0</v>
+        <v>33.0</v>
       </c>
       <c r="D9" t="n">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
       <c r="E9" t="n">
-        <v>33.0</v>
+        <v>3.0</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" t="n">
-        <v>1.0</v>
+        <v>2.2</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>47.61563</v>
+        <v>48.38582</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.51015</v>
+        <v>-119.80124</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O9" t="n">
-        <v>551637.2500000003</v>
+        <v>356894.5999999994</v>
       </c>
       <c r="P9" t="n">
-        <v>67719.30000000034</v>
+        <v>152440.20000000027</v>
       </c>
     </row>
     <row r="10">
@@ -3134,49 +3188,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>2760.0</v>
+        <v>6365.0</v>
       </c>
       <c r="C10" t="n">
-        <v>36.0</v>
+        <v>34.0</v>
       </c>
       <c r="D10" t="n">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
       <c r="E10" t="n">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>1.0</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.60657</v>
+        <v>48.45517</v>
       </c>
       <c r="L10" t="n">
-        <v>-118.9871</v>
+        <v>-119.57341</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O10" t="n">
-        <v>426096.5000000002</v>
+        <v>376260.1500000004</v>
       </c>
       <c r="P10" t="n">
-        <v>176722.69999999975</v>
+        <v>160068.70000000027</v>
       </c>
     </row>
     <row r="11">
@@ -3184,49 +3238,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>8065.0</v>
+        <v>4886.0</v>
       </c>
       <c r="C11" t="n">
-        <v>27.0</v>
+        <v>33.0</v>
       </c>
       <c r="D11" t="n">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
       <c r="E11" t="n">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H11" t="n">
-        <v>1.0</v>
+        <v>26.1</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J11" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K11" t="n">
-        <v>47.84091</v>
+        <v>48.37626</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.78015</v>
+        <v>-118.21931</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O11" t="n">
-        <v>528687.2499999995</v>
+        <v>491358.6500000006</v>
       </c>
       <c r="P11" t="n">
-        <v>92500.10000000011</v>
+        <v>151388.6000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3295,49 +3349,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>5964.0</v>
+        <v>9239.0</v>
       </c>
       <c r="C2" t="n">
-        <v>26.0</v>
+        <v>32.0</v>
       </c>
       <c r="D2" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="E2" t="n">
-        <v>34.0</v>
+        <v>19.0</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>1.5</v>
+        <v>21.0</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.71369</v>
+        <v>48.25389</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.61755</v>
+        <v>-117.28711</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>542508.2500000005</v>
+        <v>570595.6500000001</v>
       </c>
       <c r="P2" t="n">
-        <v>78505.89999999997</v>
+        <v>137927.89999999982</v>
       </c>
     </row>
     <row r="3">
@@ -3345,49 +3399,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>4696.0</v>
+        <v>14231.0</v>
       </c>
       <c r="C3" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="D3" t="n">
-        <v>39.0</v>
+        <v>28.0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
-        <v>5.0</v>
+        <v>1.3</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.13044</v>
+        <v>48.99019</v>
       </c>
       <c r="L3" t="n">
-        <v>-117.8579</v>
+        <v>-119.35049</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O3" t="n">
-        <v>522078.49999999994</v>
+        <v>395208.35000000056</v>
       </c>
       <c r="P3" t="n">
-        <v>124348.40000000001</v>
+        <v>218920.89999999982</v>
       </c>
     </row>
     <row r="4">
@@ -3395,49 +3449,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>2173.0</v>
+        <v>18646.0</v>
       </c>
       <c r="C4" t="n">
-        <v>24.0</v>
+        <v>31.0</v>
       </c>
       <c r="D4" t="n">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="E4" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" t="n">
-        <v>1.23</v>
+        <v>3.0</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.5851</v>
+        <v>48.1832</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.16148</v>
+        <v>-117.30352</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O4" t="n">
-        <v>581274.2000000002</v>
+        <v>569200.7999999995</v>
       </c>
       <c r="P4" t="n">
-        <v>64360.99999999968</v>
+        <v>130151.99999999993</v>
       </c>
     </row>
     <row r="5">
@@ -3445,49 +3499,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>9713.0</v>
+        <v>4631.0</v>
       </c>
       <c r="C5" t="n">
-        <v>27.0</v>
+        <v>35.0</v>
       </c>
       <c r="D5" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="E5" t="n">
-        <v>33.0</v>
+        <v>1.0</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
       </c>
       <c r="H5" t="n">
-        <v>97.0</v>
+        <v>23.5</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.79043</v>
+        <v>48.56619</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.93076</v>
+        <v>-117.96626</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O5" t="n">
-        <v>515885.39999999944</v>
+        <v>512867.89999999956</v>
       </c>
       <c r="P5" t="n">
-        <v>86947.30000000008</v>
+        <v>172280.89999999988</v>
       </c>
     </row>
     <row r="6">
@@ -3495,49 +3549,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>16064.0</v>
+        <v>2173.0</v>
       </c>
       <c r="C6" t="n">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
       <c r="D6" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="E6" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H6" t="n">
-        <v>4.7</v>
+        <v>1.23</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>47.9588</v>
+        <v>47.5851</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.39376</v>
+        <v>-117.16148</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O6" t="n">
-        <v>561530.4</v>
+        <v>581274.2000000002</v>
       </c>
       <c r="P6" t="n">
-        <v>105467.99999999962</v>
+        <v>64360.99999999968</v>
       </c>
     </row>
     <row r="7">
@@ -3545,49 +3599,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>15927.0</v>
+        <v>20453.0</v>
       </c>
       <c r="C7" t="n">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
       <c r="D7" t="n">
-        <v>38.0</v>
+        <v>26.0</v>
       </c>
       <c r="E7" t="n">
-        <v>27.0</v>
+        <v>10.0</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.32375</v>
+        <v>48.81247</v>
       </c>
       <c r="L7" t="n">
-        <v>-118.01163</v>
+        <v>-119.5581</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O7" t="n">
-        <v>509011.4500000003</v>
+        <v>377561.50000000035</v>
       </c>
       <c r="P7" t="n">
-        <v>145612.49999999965</v>
+        <v>199371.69999999972</v>
       </c>
     </row>
     <row r="8">
@@ -3595,49 +3649,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>9001.0</v>
+        <v>3109.0</v>
       </c>
       <c r="C8" t="n">
-        <v>35.0</v>
+        <v>28.0</v>
       </c>
       <c r="D8" t="n">
-        <v>26.0</v>
+        <v>43.0</v>
       </c>
       <c r="E8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="n">
-        <v>6.66</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.55979</v>
+        <v>47.9562</v>
       </c>
       <c r="L8" t="n">
-        <v>-119.56289</v>
+        <v>-117.42056</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O8" t="n">
-        <v>377154.3500000003</v>
+        <v>559252.4000000005</v>
       </c>
       <c r="P8" t="n">
-        <v>171576.89999999997</v>
+        <v>105182.00000000029</v>
       </c>
     </row>
     <row r="9">
@@ -3645,49 +3699,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>12013.0</v>
+        <v>14766.0</v>
       </c>
       <c r="C9" t="n">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
       <c r="D9" t="n">
-        <v>43.0</v>
+        <v>38.0</v>
       </c>
       <c r="E9" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H9" t="n">
-        <v>1.89</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>47.96508</v>
+        <v>48.57277</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.39563</v>
+        <v>-118.07024</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O9" t="n">
-        <v>561371.4500000003</v>
+        <v>504029.60000000015</v>
       </c>
       <c r="P9" t="n">
-        <v>106158.80000000005</v>
+        <v>173004.69999999984</v>
       </c>
     </row>
     <row r="10">
@@ -3695,49 +3749,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>6276.0</v>
+        <v>2206.0</v>
       </c>
       <c r="C10" t="n">
-        <v>31.0</v>
+        <v>37.0</v>
       </c>
       <c r="D10" t="n">
-        <v>24.0</v>
+        <v>29.0</v>
       </c>
       <c r="E10" t="n">
-        <v>7.0</v>
+        <v>27.0</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" t="n">
-        <v>1.5</v>
+        <v>11.8</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.19406</v>
+        <v>48.67768</v>
       </c>
       <c r="L10" t="n">
-        <v>-119.88193</v>
+        <v>-119.1575</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O10" t="n">
-        <v>350035.95000000024</v>
+        <v>411612.5000000001</v>
       </c>
       <c r="P10" t="n">
-        <v>131346.60000000003</v>
+        <v>184544.80000000025</v>
       </c>
     </row>
     <row r="11">
@@ -3745,49 +3799,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>1563.0</v>
+        <v>5267.0</v>
       </c>
       <c r="C11" t="n">
         <v>33.0</v>
       </c>
       <c r="D11" t="n">
-        <v>30.0</v>
+        <v>22.0</v>
       </c>
       <c r="E11" t="n">
-        <v>36.0</v>
+        <v>25.0</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="H11" t="n">
-        <v>8.6</v>
+        <v>7.3</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J11" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.32203</v>
+        <v>48.33207</v>
       </c>
       <c r="L11" t="n">
-        <v>-118.9833</v>
+        <v>-120.03296</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O11" t="n">
-        <v>426419.5</v>
+        <v>337198.3999999998</v>
       </c>
       <c r="P11" t="n">
-        <v>145423.29999999978</v>
+        <v>146527.7000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3856,49 +3910,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>4863.0</v>
+        <v>15655.0</v>
       </c>
       <c r="C2" t="n">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="D2" t="n">
-        <v>40.0</v>
+        <v>32.0</v>
       </c>
       <c r="E2" t="n">
-        <v>33.0</v>
+        <v>16.0</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H2" t="n">
-        <v>7.1</v>
+        <v>49.0</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.66496</v>
+        <v>48.9683</v>
       </c>
       <c r="L2" t="n">
-        <v>-117.76187</v>
+        <v>-118.78028</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>530241.0499999998</v>
+        <v>443676.1999999996</v>
       </c>
       <c r="P2" t="n">
-        <v>183145.60000000006</v>
+        <v>216512.9999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3906,49 +3960,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>11969.0</v>
+        <v>5297.0</v>
       </c>
       <c r="C3" t="n">
-        <v>23.0</v>
+        <v>40.0</v>
       </c>
       <c r="D3" t="n">
-        <v>45.0</v>
+        <v>32.0</v>
       </c>
       <c r="E3" t="n">
-        <v>29.0</v>
+        <v>15.0</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" t="n">
-        <v>16.7</v>
+        <v>45.6</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>47.47283</v>
+        <v>48.96464</v>
       </c>
       <c r="L3" t="n">
-        <v>-117.13487</v>
+        <v>-118.76387</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O3" t="n">
-        <v>583536.0499999995</v>
+        <v>445071.0500000002</v>
       </c>
       <c r="P3" t="n">
-        <v>52011.30000000021</v>
+        <v>216110.4000000003</v>
       </c>
     </row>
     <row r="4">
@@ -3956,49 +4010,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>7716.0</v>
+        <v>5338.0</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="D4" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="E4" t="n">
-        <v>29.0</v>
+        <v>12.0</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="H4" t="n">
         <v>1.9</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.28439</v>
+        <v>47.85139</v>
       </c>
       <c r="L4" t="n">
-        <v>-118.04001</v>
+        <v>-117.69343</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O4" t="n">
-        <v>506599.15000000043</v>
+        <v>536058.4499999995</v>
       </c>
       <c r="P4" t="n">
-        <v>31282.900000000212</v>
+        <v>93652.90000000023</v>
       </c>
     </row>
     <row r="5">
@@ -4006,49 +4060,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>19828.0</v>
+        <v>13057.0</v>
       </c>
       <c r="C5" t="n">
-        <v>37.0</v>
+        <v>32.0</v>
       </c>
       <c r="D5" t="n">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
       <c r="E5" t="n">
-        <v>27.0</v>
+        <v>22.0</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H5" t="n">
-        <v>14.5</v>
+        <v>2.5</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.67012</v>
+        <v>48.25725</v>
       </c>
       <c r="L5" t="n">
-        <v>-118.5965</v>
+        <v>-117.74536</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O5" t="n">
-        <v>459297.4999999995</v>
+        <v>531644.3999999996</v>
       </c>
       <c r="P5" t="n">
-        <v>183713.1999999997</v>
+        <v>138297.4999999999</v>
       </c>
     </row>
     <row r="6">
@@ -4056,49 +4110,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>2881.0</v>
+        <v>11680.0</v>
       </c>
       <c r="C6" t="n">
         <v>39.0</v>
       </c>
       <c r="D6" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="E6" t="n">
         <v>31.0</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.83405</v>
+        <v>48.83191</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.80647</v>
+        <v>-117.41371</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O6" t="n">
-        <v>526450.0499999996</v>
+        <v>559834.6500000005</v>
       </c>
       <c r="P6" t="n">
-        <v>201745.49999999974</v>
+        <v>201510.10000000006</v>
       </c>
     </row>
     <row r="7">
@@ -4106,49 +4160,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>3342.0</v>
+        <v>11559.0</v>
       </c>
       <c r="C7" t="n">
-        <v>37.0</v>
+        <v>30.0</v>
       </c>
       <c r="D7" t="n">
-        <v>27.0</v>
+        <v>40.0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>1.0</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.73591</v>
+        <v>48.09423</v>
       </c>
       <c r="L7" t="n">
-        <v>-119.41573</v>
+        <v>-117.76594</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O7" t="n">
-        <v>389662.9500000003</v>
+        <v>529895.1</v>
       </c>
       <c r="P7" t="n">
-        <v>190950.09999999966</v>
+        <v>120365.30000000035</v>
       </c>
     </row>
     <row r="8">
@@ -4156,49 +4210,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>283.0</v>
+        <v>449.0</v>
       </c>
       <c r="C8" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="D8" t="n">
-        <v>36.0</v>
+        <v>41.0</v>
       </c>
       <c r="E8" t="n">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="n">
-        <v>1.4</v>
+        <v>1.0</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.07696</v>
+        <v>47.862</v>
       </c>
       <c r="L8" t="n">
-        <v>-118.21228</v>
+        <v>-117.65075</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O8" t="n">
-        <v>491956.19999999943</v>
+        <v>539686.2499999998</v>
       </c>
       <c r="P8" t="n">
-        <v>118465.59999999996</v>
+        <v>94820.0000000002</v>
       </c>
     </row>
     <row r="9">
@@ -4206,49 +4260,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>980.0</v>
+        <v>7508.0</v>
       </c>
       <c r="C9" t="n">
-        <v>37.0</v>
+        <v>23.0</v>
       </c>
       <c r="D9" t="n">
-        <v>37.0</v>
+        <v>42.0</v>
       </c>
       <c r="E9" t="n">
-        <v>8.0</v>
+        <v>24.0</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H9" t="n">
-        <v>1.76</v>
+        <v>3.0</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.72393</v>
+        <v>47.46944</v>
       </c>
       <c r="L9" t="n">
-        <v>-118.13144</v>
+        <v>-117.44759</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O9" t="n">
-        <v>498827.6000000002</v>
+        <v>556954.8499999995</v>
       </c>
       <c r="P9" t="n">
-        <v>189632.3000000003</v>
+        <v>51638.39999999986</v>
       </c>
     </row>
     <row r="10">
@@ -4256,49 +4310,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>1245.0</v>
+        <v>6594.0</v>
       </c>
       <c r="C10" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="D10" t="n">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
       <c r="E10" t="n">
-        <v>32.0</v>
+        <v>15.0</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
         <v>34</v>
       </c>
       <c r="H10" t="n">
-        <v>5.56</v>
+        <v>7.5</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.06048</v>
+        <v>48.26744</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.54238</v>
+        <v>-117.87004</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O10" t="n">
-        <v>548897.7000000005</v>
+        <v>521046.59999999974</v>
       </c>
       <c r="P10" t="n">
-        <v>116652.79999999981</v>
+        <v>139418.40000000005</v>
       </c>
     </row>
     <row r="11">
@@ -4306,49 +4360,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>19562.0</v>
+        <v>8065.0</v>
       </c>
       <c r="C11" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="D11" t="n">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="E11" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="H11" t="n">
-        <v>2.5</v>
+        <v>1.0</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>47.92074</v>
+        <v>47.84091</v>
       </c>
       <c r="L11" t="n">
-        <v>-118.25737</v>
+        <v>-117.78015</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O11" t="n">
-        <v>488123.55000000045</v>
+        <v>528687.2499999995</v>
       </c>
       <c r="P11" t="n">
-        <v>101281.40000000023</v>
+        <v>92500.10000000011</v>
       </c>
     </row>
   </sheetData>
@@ -4417,49 +4471,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>2384.0</v>
+        <v>6953.0</v>
       </c>
       <c r="C2" t="n">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="D2" t="n">
-        <v>27.0</v>
+        <v>42.0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H2" t="n">
-        <v>1.3</v>
+        <v>2.29</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.6932</v>
+        <v>48.97203</v>
       </c>
       <c r="L2" t="n">
-        <v>-119.46489</v>
+        <v>-117.43832</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>385484.35000000027</v>
+        <v>557742.7999999996</v>
       </c>
       <c r="P2" t="n">
-        <v>186251.9999999997</v>
+        <v>216923.29999999964</v>
       </c>
     </row>
     <row r="3">
@@ -4467,49 +4521,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>6635.0</v>
+        <v>9204.0</v>
       </c>
       <c r="C3" t="n">
-        <v>33.0</v>
+        <v>26.0</v>
       </c>
       <c r="D3" t="n">
-        <v>24.0</v>
+        <v>43.0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2</v>
+        <v>4.04</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.38582</v>
+        <v>47.74924</v>
       </c>
       <c r="L3" t="n">
-        <v>-119.80124</v>
+        <v>-117.3765</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O3" t="n">
-        <v>356894.5999999994</v>
+        <v>562997.5000000006</v>
       </c>
       <c r="P3" t="n">
-        <v>152440.20000000027</v>
+        <v>82416.40000000004</v>
       </c>
     </row>
     <row r="4">
@@ -4517,49 +4571,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>15118.0</v>
+        <v>4442.0</v>
       </c>
       <c r="C4" t="n">
-        <v>25.0</v>
+        <v>38.0</v>
       </c>
       <c r="D4" t="n">
-        <v>44.0</v>
+        <v>28.0</v>
       </c>
       <c r="E4" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.67344</v>
+        <v>48.78343</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.23161</v>
+        <v>-119.31143</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O4" t="n">
-        <v>575313.1499999997</v>
+        <v>398528.4499999999</v>
       </c>
       <c r="P4" t="n">
-        <v>74078.39999999994</v>
+        <v>196177.3000000003</v>
       </c>
     </row>
     <row r="5">
@@ -4567,49 +4621,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>17204.0</v>
+        <v>9879.0</v>
       </c>
       <c r="C5" t="n">
-        <v>36.0</v>
+        <v>29.0</v>
       </c>
       <c r="D5" t="n">
-        <v>37.0</v>
+        <v>33.0</v>
       </c>
       <c r="E5" t="n">
         <v>2.0</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>39.0</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J5" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.64947</v>
+        <v>48.04436</v>
       </c>
       <c r="L5" t="n">
-        <v>-118.12163</v>
+        <v>-118.61058</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O5" t="n">
-        <v>499661.4500000003</v>
+        <v>458100.7000000001</v>
       </c>
       <c r="P5" t="n">
-        <v>181441.7000000001</v>
+        <v>114879.59999999973</v>
       </c>
     </row>
     <row r="6">
@@ -4617,49 +4671,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>10952.0</v>
+        <v>12854.0</v>
       </c>
       <c r="C6" t="n">
-        <v>23.0</v>
+        <v>38.0</v>
       </c>
       <c r="D6" t="n">
-        <v>40.0</v>
+        <v>37.0</v>
       </c>
       <c r="E6" t="n">
-        <v>33.0</v>
+        <v>6.0</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" t="n">
-        <v>6.6</v>
+        <v>6.0</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>47.52376</v>
+        <v>48.8188</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.7766</v>
+        <v>-118.16472</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O6" t="n">
-        <v>528988.9999999999</v>
+        <v>495998.79999999976</v>
       </c>
       <c r="P6" t="n">
-        <v>57613.60000000032</v>
+        <v>200068.00000000035</v>
       </c>
     </row>
     <row r="7">
@@ -4667,49 +4721,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>15735.0</v>
+        <v>5782.0</v>
       </c>
       <c r="C7" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="D7" t="n">
         <v>22.0</v>
       </c>
-      <c r="D7" t="n">
-        <v>41.0</v>
-      </c>
       <c r="E7" t="n">
-        <v>27.0</v>
+        <v>15.0</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" t="n">
-        <v>16.0</v>
+        <v>2.75</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>47.3676</v>
+        <v>48.44428</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.62056</v>
+        <v>-120.07052</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O7" t="n">
-        <v>542252.4000000003</v>
+        <v>334005.7999999998</v>
       </c>
       <c r="P7" t="n">
-        <v>40436.000000000335</v>
+        <v>158870.7999999999</v>
       </c>
     </row>
     <row r="8">
@@ -4717,49 +4771,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>6590.0</v>
+        <v>7748.0</v>
       </c>
       <c r="C8" t="n">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
       <c r="D8" t="n">
-        <v>44.0</v>
+        <v>23.0</v>
       </c>
       <c r="E8" t="n">
-        <v>28.0</v>
+        <v>33.0</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="n">
-        <v>4.0</v>
+        <v>1.8</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>48.23949</v>
+        <v>47.96951</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.24901</v>
+        <v>-119.95631</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O8" t="n">
-        <v>573834.1500000001</v>
+        <v>343713.64999999985</v>
       </c>
       <c r="P8" t="n">
-        <v>136343.9000000004</v>
+        <v>106646.09999999996</v>
       </c>
     </row>
     <row r="9">
@@ -4767,49 +4821,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>5785.0</v>
+        <v>3336.0</v>
       </c>
       <c r="C9" t="n">
-        <v>33.0</v>
+        <v>30.0</v>
       </c>
       <c r="D9" t="n">
-        <v>22.0</v>
+        <v>44.0</v>
       </c>
       <c r="E9" t="n">
-        <v>8.0</v>
+        <v>27.0</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>14.53</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.36872</v>
+        <v>48.06246</v>
       </c>
       <c r="L9" t="n">
-        <v>-120.10904</v>
+        <v>-117.23825</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O9" t="n">
-        <v>330731.60000000056</v>
+        <v>574748.7500000006</v>
       </c>
       <c r="P9" t="n">
-        <v>150559.20000000036</v>
+        <v>116870.60000000017</v>
       </c>
     </row>
     <row r="10">
@@ -4817,49 +4871,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>12849.0</v>
+        <v>20382.0</v>
       </c>
       <c r="C10" t="n">
-        <v>27.0</v>
+        <v>33.0</v>
       </c>
       <c r="D10" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E10" t="n">
         <v>36.0</v>
       </c>
-      <c r="E10" t="n">
-        <v>27.0</v>
-      </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
         <v>35</v>
       </c>
       <c r="H10" t="n">
-        <v>42.0</v>
+        <v>8.5</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.81192</v>
+        <v>48.315757</v>
       </c>
       <c r="L10" t="n">
-        <v>-118.25125</v>
+        <v>-119.635335</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O10" t="n">
-        <v>488643.7500000001</v>
+        <v>370996.5250000002</v>
       </c>
       <c r="P10" t="n">
-        <v>89311.20000000007</v>
+        <v>144733.26999999976</v>
       </c>
     </row>
     <row r="11">
@@ -4867,49 +4921,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>6307.0</v>
+        <v>19018.0</v>
       </c>
       <c r="C11" t="n">
         <v>26.0</v>
       </c>
       <c r="D11" t="n">
-        <v>41.0</v>
+        <v>45.0</v>
       </c>
       <c r="E11" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>4.0</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>47.70286</v>
+        <v>47.73484</v>
       </c>
       <c r="L11" t="n">
-        <v>-117.64953</v>
+        <v>-117.05036</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O11" t="n">
-        <v>539789.9500000001</v>
+        <v>590719.4000000001</v>
       </c>
       <c r="P11" t="n">
-        <v>77314.60000000012</v>
+        <v>80832.39999999982</v>
       </c>
     </row>
   </sheetData>
@@ -4978,49 +5032,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>18086.0</v>
+        <v>5358.0</v>
       </c>
       <c r="C2" t="n">
-        <v>34.0</v>
+        <v>27.0</v>
       </c>
       <c r="D2" t="n">
-        <v>26.0</v>
+        <v>41.0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.0</v>
+        <v>22.0</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>40.0</v>
+        <v>5.0</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.46931</v>
+        <v>47.81848</v>
       </c>
       <c r="L2" t="n">
-        <v>-119.51879</v>
+        <v>-117.60737</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>380902.8500000004</v>
+        <v>543373.5499999997</v>
       </c>
       <c r="P2" t="n">
-        <v>161624.1</v>
+        <v>90032.8000000001</v>
       </c>
     </row>
     <row r="3">
@@ -5028,49 +5082,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>11870.0</v>
+        <v>9227.0</v>
       </c>
       <c r="C3" t="n">
-        <v>39.0</v>
+        <v>33.0</v>
       </c>
       <c r="D3" t="n">
-        <v>43.0</v>
+        <v>22.0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.0</v>
+        <v>28.0</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
       </c>
       <c r="H3" t="n">
-        <v>2.5</v>
+        <v>42.0</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.86438</v>
+        <v>48.32874</v>
       </c>
       <c r="L3" t="n">
-        <v>-117.35354</v>
+        <v>-120.08197</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O3" t="n">
-        <v>564949.1000000004</v>
+        <v>333032.55000000016</v>
       </c>
       <c r="P3" t="n">
-        <v>205081.79999999967</v>
+        <v>146161.40000000037</v>
       </c>
     </row>
     <row r="4">
@@ -5078,49 +5132,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>3953.0</v>
+        <v>19529.0</v>
       </c>
       <c r="C4" t="n">
-        <v>37.0</v>
+        <v>33.0</v>
       </c>
       <c r="D4" t="n">
-        <v>28.0</v>
+        <v>25.0</v>
       </c>
       <c r="E4" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="H4" t="n">
-        <v>14.3</v>
+        <v>4.0</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.72508</v>
+        <v>48.37533</v>
       </c>
       <c r="L4" t="n">
-        <v>-119.32762</v>
+        <v>-119.6385</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O4" t="n">
-        <v>397152.30000000034</v>
+        <v>370727.5000000006</v>
       </c>
       <c r="P4" t="n">
-        <v>189758.7999999998</v>
+        <v>151286.29999999978</v>
       </c>
     </row>
     <row r="5">
@@ -5128,49 +5182,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>1957.0</v>
+        <v>9271.0</v>
       </c>
       <c r="C5" t="n">
-        <v>24.0</v>
+        <v>30.0</v>
       </c>
       <c r="D5" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="E5" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" t="n">
-        <v>1.6</v>
+        <v>2.16</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>47.58205</v>
+        <v>48.12038</v>
       </c>
       <c r="L5" t="n">
-        <v>-117.41982</v>
+        <v>-117.27595</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O5" t="n">
-        <v>559315.2999999999</v>
+        <v>571544.2500000005</v>
       </c>
       <c r="P5" t="n">
-        <v>64025.50000000026</v>
+        <v>123241.7999999997</v>
       </c>
     </row>
     <row r="6">
@@ -5178,49 +5232,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>3570.0</v>
+        <v>20453.0</v>
       </c>
       <c r="C6" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="D6" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="E6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="n">
         <v>3.0</v>
       </c>
-      <c r="F6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.5</v>
-      </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.73996</v>
+        <v>48.81247</v>
       </c>
       <c r="L6" t="n">
-        <v>-119.42556</v>
+        <v>-119.5581</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O6" t="n">
-        <v>388827.3999999996</v>
+        <v>377561.50000000035</v>
       </c>
       <c r="P6" t="n">
-        <v>191395.60000000038</v>
+        <v>199371.69999999972</v>
       </c>
     </row>
     <row r="7">
@@ -5228,49 +5282,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>17599.0</v>
+        <v>2847.0</v>
       </c>
       <c r="C7" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="D7" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
       <c r="E7" t="n">
         <v>23.0</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="n">
-        <v>2.5</v>
+        <v>8.0</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>47.73464</v>
+        <v>47.82909</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.36029</v>
+        <v>-117.58589</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O7" t="n">
-        <v>564375.3499999995</v>
+        <v>545199.3499999995</v>
       </c>
       <c r="P7" t="n">
-        <v>80810.39999999988</v>
+        <v>91199.90000000008</v>
       </c>
     </row>
     <row r="8">
@@ -5278,49 +5332,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>4478.0</v>
+        <v>11021.0</v>
       </c>
       <c r="C8" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="D8" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="E8" t="n">
-        <v>26.0</v>
+        <v>9.0</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="n">
-        <v>2.0</v>
+        <v>2.5</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>47.81458</v>
+        <v>48.11313</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.33355</v>
+        <v>-117.25424</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O8" t="n">
-        <v>566648.2499999998</v>
+        <v>573389.6000000003</v>
       </c>
       <c r="P8" t="n">
-        <v>89603.79999999993</v>
+        <v>122444.2999999998</v>
       </c>
     </row>
     <row r="9">
@@ -5328,49 +5382,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>6815.0</v>
+        <v>1533.0</v>
       </c>
       <c r="C9" t="n">
-        <v>35.0</v>
+        <v>27.0</v>
       </c>
       <c r="D9" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="E9" t="n">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.50196</v>
+        <v>47.82909</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.76563</v>
+        <v>-117.4139</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O9" t="n">
-        <v>529921.4499999998</v>
+        <v>559818.5000000001</v>
       </c>
       <c r="P9" t="n">
-        <v>165215.59999999966</v>
+        <v>91199.90000000008</v>
       </c>
     </row>
     <row r="10">
@@ -5378,49 +5432,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>15382.0</v>
+        <v>13909.0</v>
       </c>
       <c r="C10" t="n">
-        <v>31.0</v>
+        <v>23.0</v>
       </c>
       <c r="D10" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="E10" t="n">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" t="n">
-        <v>1.3</v>
+        <v>11.0</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.18471</v>
+        <v>47.51623</v>
       </c>
       <c r="L10" t="n">
-        <v>-117.71793</v>
+        <v>-117.39246</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O10" t="n">
-        <v>533975.9500000004</v>
+        <v>561640.9</v>
       </c>
       <c r="P10" t="n">
-        <v>130318.10000000028</v>
+        <v>56785.30000000002</v>
       </c>
     </row>
     <row r="11">
@@ -5428,49 +5482,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>7941.0</v>
+        <v>1486.0</v>
       </c>
       <c r="C11" t="n">
-        <v>34.0</v>
+        <v>25.0</v>
       </c>
       <c r="D11" t="n">
-        <v>37.0</v>
+        <v>42.0</v>
       </c>
       <c r="E11" t="n">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="H11" t="n">
-        <v>1.2</v>
+        <v>5.0</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.43635</v>
+        <v>47.67708</v>
       </c>
       <c r="L11" t="n">
-        <v>-118.13101</v>
+        <v>-117.44563</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O11" t="n">
-        <v>498864.14999999973</v>
+        <v>557121.4500000005</v>
       </c>
       <c r="P11" t="n">
-        <v>157998.4999999997</v>
+        <v>74478.79999999962</v>
       </c>
     </row>
   </sheetData>
@@ -5539,49 +5593,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>5207.0</v>
+        <v>3830.0</v>
       </c>
       <c r="C2" t="n">
-        <v>30.0</v>
+        <v>24.0</v>
       </c>
       <c r="D2" t="n">
-        <v>35.0</v>
+        <v>42.0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.0</v>
+        <v>7.0</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" t="n">
-        <v>18.5</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J2" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>48.08448</v>
+        <v>47.59264</v>
       </c>
       <c r="L2" t="n">
-        <v>-118.33658</v>
+        <v>-117.5595</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>481390.7000000002</v>
+        <v>547442.5</v>
       </c>
       <c r="P2" t="n">
-        <v>119292.79999999992</v>
+        <v>65190.40000000032</v>
       </c>
     </row>
     <row r="3">
@@ -5589,49 +5643,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>19918.0</v>
+        <v>18859.0</v>
       </c>
       <c r="C3" t="n">
-        <v>40.0</v>
+        <v>22.0</v>
       </c>
       <c r="D3" t="n">
-        <v>28.0</v>
+        <v>41.0</v>
       </c>
       <c r="E3" t="n">
-        <v>5.0</v>
+        <v>34.0</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" t="n">
-        <v>32.5</v>
+        <v>1.2</v>
       </c>
       <c r="I3" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="J3" t="n">
         <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>48.99742</v>
+        <v>47.36031</v>
       </c>
       <c r="L3" t="n">
-        <v>-119.33389</v>
+        <v>-117.62049</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O3" t="n">
-        <v>396619.35000000027</v>
+        <v>542258.3499999996</v>
       </c>
       <c r="P3" t="n">
-        <v>219716.1999999998</v>
+        <v>39634.09999999982</v>
       </c>
     </row>
     <row r="4">
@@ -5639,49 +5693,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>16296.0</v>
+        <v>14865.0</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="D4" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.0</v>
+        <v>22.0</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>47.3458</v>
+        <v>47.65552</v>
       </c>
       <c r="L4" t="n">
-        <v>-117.63633</v>
+        <v>-117.47801</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O4" t="n">
-        <v>540911.95</v>
+        <v>554369.1500000003</v>
       </c>
       <c r="P4" t="n">
-        <v>38037.99999999967</v>
+        <v>72107.2000000003</v>
       </c>
     </row>
     <row r="5">
@@ -5689,49 +5743,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>14476.0</v>
+        <v>7746.0</v>
       </c>
       <c r="C5" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="D5" t="n">
-        <v>24.0</v>
+        <v>42.0</v>
       </c>
       <c r="E5" t="n">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H5" t="n">
-        <v>30.0</v>
+        <v>1.3</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>48.17247</v>
+        <v>47.82878</v>
       </c>
       <c r="L5" t="n">
-        <v>-119.77398</v>
+        <v>-117.54319</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O5" t="n">
-        <v>359211.7000000005</v>
+        <v>548828.8500000003</v>
       </c>
       <c r="P5" t="n">
-        <v>128971.69999999968</v>
+        <v>91165.8000000002</v>
       </c>
     </row>
     <row r="6">
@@ -5739,49 +5793,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>11727.0</v>
+        <v>14650.0</v>
       </c>
       <c r="C6" t="n">
-        <v>30.0</v>
+        <v>38.0</v>
       </c>
       <c r="D6" t="n">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
       <c r="E6" t="n">
-        <v>28.0</v>
+        <v>17.0</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
       <c r="K6" t="n">
-        <v>48.06971</v>
+        <v>48.18513</v>
       </c>
       <c r="L6" t="n">
-        <v>-117.25986</v>
+        <v>-118.05318</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O6" t="n">
-        <v>572911.8999999997</v>
+        <v>505479.7000000002</v>
       </c>
       <c r="P6" t="n">
-        <v>117668.10000000006</v>
+        <v>130364.3000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5789,49 +5843,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>4094.0</v>
+        <v>9233.0</v>
       </c>
       <c r="C7" t="n">
-        <v>31.0</v>
+        <v>36.0</v>
       </c>
       <c r="D7" t="n">
-        <v>41.0</v>
+        <v>28.0</v>
       </c>
       <c r="E7" t="n">
-        <v>5.0</v>
+        <v>29.0</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>48.2174</v>
+        <v>48.58443</v>
       </c>
       <c r="L7" t="n">
-        <v>-117.65295</v>
+        <v>-119.35733</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O7" t="n">
-        <v>539499.2499999997</v>
+        <v>394626.9499999996</v>
       </c>
       <c r="P7" t="n">
-        <v>133913.99999999977</v>
+        <v>174287.29999999973</v>
       </c>
     </row>
     <row r="8">
@@ -5839,49 +5893,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>1586.0</v>
+        <v>11430.0</v>
       </c>
       <c r="C8" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="D8" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="E8" t="n">
-        <v>17.0</v>
+        <v>31.0</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
       </c>
       <c r="H8" t="n">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
       <c r="K8" t="n">
-        <v>47.66658</v>
+        <v>47.88378</v>
       </c>
       <c r="L8" t="n">
-        <v>-117.52068</v>
+        <v>-117.43023</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O8" t="n">
-        <v>550742.2000000001</v>
+        <v>558430.4500000004</v>
       </c>
       <c r="P8" t="n">
-        <v>73323.80000000037</v>
+        <v>97215.80000000018</v>
       </c>
     </row>
     <row r="9">
@@ -5889,49 +5943,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>13094.0</v>
+        <v>19816.0</v>
       </c>
       <c r="C9" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="D9" t="n">
-        <v>39.0</v>
+        <v>27.0</v>
       </c>
       <c r="E9" t="n">
-        <v>22.0</v>
+        <v>29.0</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
       </c>
       <c r="H9" t="n">
-        <v>5.7</v>
+        <v>1.2</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K9" t="n">
-        <v>48.4291</v>
+        <v>48.67463</v>
       </c>
       <c r="L9" t="n">
-        <v>-117.88682</v>
+        <v>-119.46832</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O9" t="n">
-        <v>519620.3</v>
+        <v>385192.7999999995</v>
       </c>
       <c r="P9" t="n">
-        <v>157200.9999999998</v>
+        <v>184209.30000000005</v>
       </c>
     </row>
     <row r="10">
@@ -5939,49 +5993,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>9001.0</v>
+        <v>1015.0</v>
       </c>
       <c r="C10" t="n">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="D10" t="n">
         <v>26.0</v>
       </c>
       <c r="E10" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
         <v>34</v>
       </c>
       <c r="H10" t="n">
-        <v>6.66</v>
+        <v>1.6</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
       <c r="K10" t="n">
-        <v>48.55979</v>
+        <v>48.39361</v>
       </c>
       <c r="L10" t="n">
-        <v>-119.56289</v>
+        <v>-119.58454</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O10" t="n">
-        <v>377154.3500000003</v>
+        <v>375314.0999999996</v>
       </c>
       <c r="P10" t="n">
-        <v>171576.89999999997</v>
+        <v>153297.10000000027</v>
       </c>
     </row>
     <row r="11">
@@ -5989,49 +6043,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="n">
-        <v>7688.0</v>
+        <v>14022.0</v>
       </c>
       <c r="C11" t="n">
-        <v>38.0</v>
+        <v>28.0</v>
       </c>
       <c r="D11" t="n">
-        <v>27.0</v>
+        <v>43.0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
         <v>34</v>
       </c>
       <c r="H11" t="n">
-        <v>29.5</v>
+        <v>1.3</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>48.82711</v>
+        <v>47.93816</v>
       </c>
       <c r="L11" t="n">
-        <v>-119.37734</v>
+        <v>-117.3879</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O11" t="n">
-        <v>392926.0999999997</v>
+        <v>562028.4999999999</v>
       </c>
       <c r="P11" t="n">
-        <v>200982.09999999974</v>
+        <v>103197.60000000038</v>
       </c>
     </row>
   </sheetData>
